--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Desktop\questionnaire_example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42280EDF-4FCC-4048-87EE-4CD202F082E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A6D84-D043-4CF4-B5BB-5DC7A47E2159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3420" windowWidth="24465" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -462,7 +462,7 @@
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2:AF50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,79 +592,79 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>4</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>4</v>
       </c>
       <c r="AD2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -690,79 +690,79 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>2</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>2</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -788,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -800,40 +800,40 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -842,22 +842,22 @@
         <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF4">
         <v>2</v>
@@ -898,43 +898,43 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -984,31 +984,31 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1020,31 +1020,31 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>4</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>4</v>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AE6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1082,22 +1082,22 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -1106,19 +1106,19 @@
         <v>4</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1130,25 +1130,25 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>4</v>
       </c>
       <c r="AB7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>4</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7">
         <v>4</v>
@@ -1183,28 +1183,28 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>2</v>
@@ -1225,22 +1225,22 @@
         <v>2</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>2</v>
@@ -1249,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1278,25 +1278,25 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1305,52 +1305,52 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1376,76 +1376,76 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>4</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>4</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>4</v>
       </c>
       <c r="AC10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>4</v>
@@ -1474,34 +1474,34 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1513,40 +1513,40 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1572,55 +1572,55 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1635,16 +1635,16 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1670,16 +1670,16 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>4</v>
@@ -1691,22 +1691,22 @@
         <v>4</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>4</v>
@@ -1715,34 +1715,34 @@
         <v>4</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>4</v>
       </c>
       <c r="Z13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>4</v>
       </c>
       <c r="AB13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>4</v>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -1768,22 +1768,22 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1792,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -1810,37 +1810,37 @@
         <v>2</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>2</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z14">
         <v>2</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD14">
         <v>2</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1866,22 +1866,22 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1890,52 +1890,52 @@
         <v>2</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>2</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA15">
         <v>2</v>
       </c>
       <c r="AB15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>2</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF15">
         <v>2</v>
@@ -1964,16 +1964,16 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1982,46 +1982,46 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2062,43 +2062,43 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <v>2</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>2</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S17">
         <v>2</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -2107,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>2</v>
@@ -2125,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="AC17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2160,37 +2160,37 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <v>4</v>
@@ -2202,25 +2202,25 @@
         <v>4</v>
       </c>
       <c r="V18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>4</v>
       </c>
       <c r="Z18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC18">
         <v>4</v>
@@ -2229,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="AE18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2258,40 +2258,40 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2306,31 +2306,31 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2356,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2365,22 +2365,22 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O20">
         <v>4</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -2389,37 +2389,37 @@
         <v>4</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U20">
         <v>4</v>
       </c>
       <c r="V20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z20">
         <v>4</v>
       </c>
       <c r="AA20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB20">
         <v>4</v>
       </c>
       <c r="AC20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD20">
         <v>4</v>
@@ -2454,13 +2454,13 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2469,25 +2469,25 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2496,37 +2496,37 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2570,46 +2570,46 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -2618,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -2650,40 +2650,40 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23">
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>2</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>2</v>
@@ -2692,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>2</v>
@@ -2704,25 +2704,25 @@
         <v>2</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD23">
         <v>2</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -2748,52 +2748,52 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <v>2</v>
@@ -2867,40 +2867,40 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <v>2</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>2</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -2909,16 +2909,16 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -2944,79 +2944,79 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3051,55 +3051,55 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3146,34 +3146,34 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>2</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T28">
         <v>2</v>
@@ -3182,10 +3182,10 @@
         <v>2</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <v>2</v>
@@ -3194,10 +3194,10 @@
         <v>2</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>2</v>
@@ -3206,10 +3206,10 @@
         <v>2</v>
       </c>
       <c r="AD28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>2</v>
@@ -3238,40 +3238,40 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3280,19 +3280,19 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3339,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3369,22 +3369,22 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3434,61 +3434,61 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q31">
         <v>2</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>2</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -3500,13 +3500,13 @@
         <v>2</v>
       </c>
       <c r="AD31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3532,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -3544,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -3559,43 +3559,43 @@
         <v>2</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>2</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>2</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>2</v>
       </c>
       <c r="Z32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>2</v>
       </c>
       <c r="AC32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD32">
         <v>2</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3642,19 +3642,19 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3675,31 +3675,31 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3731,40 +3731,40 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3773,34 +3773,34 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -3826,31 +3826,31 @@
         <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3859,25 +3859,25 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -3889,16 +3889,16 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -3933,37 +3933,37 @@
         <v>4</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q36">
         <v>4</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
       <c r="U36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>4</v>
@@ -3972,28 +3972,28 @@
         <v>4</v>
       </c>
       <c r="X36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>4</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -4076,22 +4076,22 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4120,34 +4120,34 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4156,28 +4156,28 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4221,16 +4221,16 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39">
         <v>2</v>
@@ -4245,52 +4245,52 @@
         <v>2</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R39">
         <v>2</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U39">
         <v>2</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>2</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>2</v>
       </c>
       <c r="AB39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC39">
         <v>2</v>
       </c>
       <c r="AD39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <v>2</v>
       </c>
       <c r="AF39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -4316,31 +4316,31 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40">
         <v>2</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -4349,43 +4349,43 @@
         <v>2</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>2</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>2</v>
       </c>
       <c r="Z40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>2</v>
       </c>
       <c r="AB40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD40">
         <v>2</v>
       </c>
       <c r="AE40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>2</v>
@@ -4420,13 +4420,13 @@
         <v>2</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>2</v>
@@ -4435,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -4453,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>2</v>
@@ -4465,28 +4465,28 @@
         <v>2</v>
       </c>
       <c r="Y41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>2</v>
       </c>
       <c r="AD41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF41">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -4512,79 +4512,79 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>2</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X42">
         <v>2</v>
       </c>
       <c r="Y42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <v>2</v>
       </c>
       <c r="AE42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -4610,58 +4610,58 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P43">
         <v>4</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>4</v>
       </c>
       <c r="S43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>4</v>
       </c>
       <c r="W43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z43">
         <v>4</v>
@@ -4670,16 +4670,16 @@
         <v>4</v>
       </c>
       <c r="AB43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD43">
         <v>4</v>
       </c>
       <c r="AE43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>4</v>
@@ -4711,58 +4711,58 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>2</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44">
         <v>2</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O44">
         <v>2</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T44">
         <v>2</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X44">
         <v>2</v>
       </c>
       <c r="Y44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -4771,16 +4771,16 @@
         <v>2</v>
       </c>
       <c r="AC44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD44">
         <v>2</v>
       </c>
       <c r="AE44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -4809,31 +4809,31 @@
         <v>4</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>4</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>4</v>
       </c>
       <c r="Q45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>4</v>
@@ -4845,25 +4845,25 @@
         <v>4</v>
       </c>
       <c r="U45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>4</v>
@@ -4872,13 +4872,13 @@
         <v>4</v>
       </c>
       <c r="AD45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE45">
         <v>4</v>
       </c>
       <c r="AF45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -4904,16 +4904,16 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -4922,49 +4922,49 @@
         <v>2</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>2</v>
       </c>
       <c r="Z46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC46">
         <v>2</v>
@@ -4973,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="AE46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>2</v>
@@ -5014,55 +5014,55 @@
         <v>4</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>4</v>
       </c>
       <c r="Q47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>4</v>
       </c>
       <c r="X47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC47">
         <v>4</v>
@@ -5071,10 +5071,10 @@
         <v>4</v>
       </c>
       <c r="AE47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -5109,70 +5109,70 @@
         <v>2</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q48">
         <v>2</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S48">
         <v>2</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V48">
         <v>2</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:32">
@@ -5198,58 +5198,58 @@
         <v>2</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49">
         <v>4</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>4</v>
       </c>
       <c r="V49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z49">
         <v>4</v>
@@ -5261,16 +5261,16 @@
         <v>4</v>
       </c>
       <c r="AC49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:32">
@@ -5296,46 +5296,46 @@
         <v>3</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>4</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <v>4</v>
@@ -5344,13 +5344,13 @@
         <v>4</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y50">
         <v>4</v>
       </c>
       <c r="Z50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA50">
         <v>4</v>
@@ -5359,16 +5359,16 @@
         <v>4</v>
       </c>
       <c r="AC50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
